--- a/data/cleaned_data/2013_NC.xlsx
+++ b/data/cleaned_data/2013_NC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="150">
   <si>
     <t>Year</t>
   </si>
@@ -22,7 +22,7 @@
     <t>County</t>
   </si>
   <si>
-    <t>fatalaties</t>
+    <t>fatalities</t>
   </si>
   <si>
     <t>injuries</t>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>YANCEY</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>Burlington, NC</t>
@@ -857,8 +860,8 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>23</v>
+      <c r="C2" t="s">
+        <v>108</v>
       </c>
       <c r="D2">
         <v>1754</v>
@@ -870,10 +873,10 @@
         <v>154162</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -883,8 +886,8 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>8</v>
+      <c r="C3" t="s">
+        <v>108</v>
       </c>
       <c r="D3">
         <v>212</v>
@@ -896,10 +899,10 @@
         <v>37012</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -909,8 +912,8 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>108</v>
       </c>
       <c r="D4">
         <v>98</v>
@@ -929,8 +932,8 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>7</v>
+      <c r="C5" t="s">
+        <v>108</v>
       </c>
       <c r="D5">
         <v>370</v>
@@ -942,10 +945,10 @@
         <v>25957</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -955,8 +958,8 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>4</v>
+      <c r="C6" t="s">
+        <v>108</v>
       </c>
       <c r="D6">
         <v>206</v>
@@ -975,8 +978,8 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>108</v>
       </c>
       <c r="D7">
         <v>151</v>
@@ -995,8 +998,8 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>13</v>
+      <c r="C8" t="s">
+        <v>108</v>
       </c>
       <c r="D8">
         <v>435</v>
@@ -1008,10 +1011,10 @@
         <v>47382</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1021,8 +1024,8 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>5</v>
+      <c r="C9" t="s">
+        <v>108</v>
       </c>
       <c r="D9">
         <v>251</v>
@@ -1041,8 +1044,8 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
-        <v>16</v>
+      <c r="C10" t="s">
+        <v>108</v>
       </c>
       <c r="D10">
         <v>499</v>
@@ -1061,8 +1064,8 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
-        <v>13</v>
+      <c r="C11" t="s">
+        <v>108</v>
       </c>
       <c r="D11">
         <v>904</v>
@@ -1074,10 +1077,10 @@
         <v>114922</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1087,8 +1090,8 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>33</v>
+      <c r="C12" t="s">
+        <v>108</v>
       </c>
       <c r="D12">
         <v>2673</v>
@@ -1100,10 +1103,10 @@
         <v>246807</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1113,8 +1116,8 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
-        <v>8</v>
+      <c r="C13" t="s">
+        <v>108</v>
       </c>
       <c r="D13">
         <v>952</v>
@@ -1126,10 +1129,10 @@
         <v>89354</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1139,8 +1142,8 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14">
-        <v>19</v>
+      <c r="C14" t="s">
+        <v>108</v>
       </c>
       <c r="D14">
         <v>2259</v>
@@ -1152,10 +1155,10 @@
         <v>187240</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1165,8 +1168,8 @@
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
-        <v>8</v>
+      <c r="C15" t="s">
+        <v>108</v>
       </c>
       <c r="D15">
         <v>843</v>
@@ -1178,10 +1181,10 @@
         <v>82048</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1191,8 +1194,8 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>108</v>
       </c>
       <c r="D16">
         <v>48</v>
@@ -1204,10 +1207,10 @@
         <v>10116</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1217,8 +1220,8 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17">
-        <v>7</v>
+      <c r="C17" t="s">
+        <v>108</v>
       </c>
       <c r="D17">
         <v>530</v>
@@ -1230,10 +1233,10 @@
         <v>68388</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1243,8 +1246,8 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18">
-        <v>2</v>
+      <c r="C18" t="s">
+        <v>108</v>
       </c>
       <c r="D18">
         <v>157</v>
@@ -1263,8 +1266,8 @@
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19">
-        <v>19</v>
+      <c r="C19" t="s">
+        <v>108</v>
       </c>
       <c r="D19">
         <v>1869</v>
@@ -1276,10 +1279,10 @@
         <v>154965</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1289,8 +1292,8 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20">
-        <v>13</v>
+      <c r="C20" t="s">
+        <v>108</v>
       </c>
       <c r="D20">
         <v>390</v>
@@ -1302,10 +1305,10 @@
         <v>65243</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1315,8 +1318,8 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21">
-        <v>6</v>
+      <c r="C21" t="s">
+        <v>108</v>
       </c>
       <c r="D21">
         <v>222</v>
@@ -1335,8 +1338,8 @@
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>108</v>
       </c>
       <c r="D22">
         <v>69</v>
@@ -1355,8 +1358,8 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23">
-        <v>2</v>
+      <c r="C23" t="s">
+        <v>108</v>
       </c>
       <c r="D23">
         <v>60</v>
@@ -1375,8 +1378,8 @@
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24">
-        <v>10</v>
+      <c r="C24" t="s">
+        <v>108</v>
       </c>
       <c r="D24">
         <v>1135</v>
@@ -1388,10 +1391,10 @@
         <v>96873</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1401,8 +1404,8 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25">
-        <v>22</v>
+      <c r="C25" t="s">
+        <v>108</v>
       </c>
       <c r="D25">
         <v>920</v>
@@ -1421,8 +1424,8 @@
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26">
-        <v>17</v>
+      <c r="C26" t="s">
+        <v>108</v>
       </c>
       <c r="D26">
         <v>899</v>
@@ -1434,10 +1437,10 @@
         <v>104285</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1447,8 +1450,8 @@
       <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27">
-        <v>50</v>
+      <c r="C27" t="s">
+        <v>108</v>
       </c>
       <c r="D27">
         <v>3466</v>
@@ -1460,10 +1463,10 @@
         <v>332997</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1473,8 +1476,8 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28">
-        <v>4</v>
+      <c r="C28" t="s">
+        <v>108</v>
       </c>
       <c r="D28">
         <v>131</v>
@@ -1486,10 +1489,10 @@
         <v>24253</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1499,8 +1502,8 @@
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29">
-        <v>7</v>
+      <c r="C29" t="s">
+        <v>108</v>
       </c>
       <c r="D29">
         <v>351</v>
@@ -1512,10 +1515,10 @@
         <v>34810</v>
       </c>
       <c r="G29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1525,8 +1528,8 @@
       <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C30">
-        <v>28</v>
+      <c r="C30" t="s">
+        <v>108</v>
       </c>
       <c r="D30">
         <v>1672</v>
@@ -1538,10 +1541,10 @@
         <v>163295</v>
       </c>
       <c r="G30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1551,8 +1554,8 @@
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31">
-        <v>3</v>
+      <c r="C31" t="s">
+        <v>108</v>
       </c>
       <c r="D31">
         <v>270</v>
@@ -1564,10 +1567,10 @@
         <v>41435</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1577,8 +1580,8 @@
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C32">
-        <v>8</v>
+      <c r="C32" t="s">
+        <v>108</v>
       </c>
       <c r="D32">
         <v>557</v>
@@ -1597,8 +1600,8 @@
       <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33">
-        <v>25</v>
+      <c r="C33" t="s">
+        <v>108</v>
       </c>
       <c r="D33">
         <v>3408</v>
@@ -1610,10 +1613,10 @@
         <v>288723</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1623,8 +1626,8 @@
       <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="C34">
-        <v>8</v>
+      <c r="C34" t="s">
+        <v>108</v>
       </c>
       <c r="D34">
         <v>642</v>
@@ -1636,10 +1639,10 @@
         <v>55422</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1649,8 +1652,8 @@
       <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35">
-        <v>25</v>
+      <c r="C35" t="s">
+        <v>108</v>
       </c>
       <c r="D35">
         <v>3341</v>
@@ -1662,10 +1665,10 @@
         <v>360594</v>
       </c>
       <c r="G35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1675,8 +1678,8 @@
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36">
-        <v>11</v>
+      <c r="C36" t="s">
+        <v>108</v>
       </c>
       <c r="D36">
         <v>523</v>
@@ -1688,10 +1691,10 @@
         <v>62074</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1701,8 +1704,8 @@
       <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="C37">
-        <v>23</v>
+      <c r="C37" t="s">
+        <v>108</v>
       </c>
       <c r="D37">
         <v>2732</v>
@@ -1714,10 +1717,10 @@
         <v>209212</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1727,8 +1730,8 @@
       <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="C38">
-        <v>3</v>
+      <c r="C38" t="s">
+        <v>108</v>
       </c>
       <c r="D38">
         <v>115</v>
@@ -1740,10 +1743,10 @@
         <v>11703</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1753,8 +1756,8 @@
       <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C39">
-        <v>5</v>
+      <c r="C39" t="s">
+        <v>108</v>
       </c>
       <c r="D39">
         <v>131</v>
@@ -1773,8 +1776,8 @@
       <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="C40">
-        <v>7</v>
+      <c r="C40" t="s">
+        <v>108</v>
       </c>
       <c r="D40">
         <v>520</v>
@@ -1786,10 +1789,10 @@
         <v>57762</v>
       </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1799,8 +1802,8 @@
       <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="C41">
-        <v>3</v>
+      <c r="C41" t="s">
+        <v>108</v>
       </c>
       <c r="D41">
         <v>167</v>
@@ -1819,8 +1822,8 @@
       <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C42">
-        <v>48</v>
+      <c r="C42" t="s">
+        <v>108</v>
       </c>
       <c r="D42">
         <v>7078</v>
@@ -1832,10 +1835,10 @@
         <v>506400</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1845,8 +1848,8 @@
       <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="C43">
-        <v>13</v>
+      <c r="C43" t="s">
+        <v>108</v>
       </c>
       <c r="D43">
         <v>741</v>
@@ -1858,10 +1861,10 @@
         <v>53187</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1871,8 +1874,8 @@
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44">
-        <v>28</v>
+      <c r="C44" t="s">
+        <v>108</v>
       </c>
       <c r="D44">
         <v>1054</v>
@@ -1884,10 +1887,10 @@
         <v>125028</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1897,8 +1900,8 @@
       <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="C45">
-        <v>7</v>
+      <c r="C45" t="s">
+        <v>108</v>
       </c>
       <c r="D45">
         <v>542</v>
@@ -1910,10 +1913,10 @@
         <v>58962</v>
       </c>
       <c r="G45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1923,8 +1926,8 @@
       <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="C46">
-        <v>8</v>
+      <c r="C46" t="s">
+        <v>108</v>
       </c>
       <c r="D46">
         <v>990</v>
@@ -1936,10 +1939,10 @@
         <v>108879</v>
       </c>
       <c r="G46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1949,8 +1952,8 @@
       <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C47">
-        <v>3</v>
+      <c r="C47" t="s">
+        <v>108</v>
       </c>
       <c r="D47">
         <v>280</v>
@@ -1969,8 +1972,8 @@
       <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="C48">
-        <v>6</v>
+      <c r="C48" t="s">
+        <v>108</v>
       </c>
       <c r="D48">
         <v>461</v>
@@ -1982,10 +1985,10 @@
         <v>51155</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1995,8 +1998,8 @@
       <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="C49">
-        <v>0</v>
+      <c r="C49" t="s">
+        <v>108</v>
       </c>
       <c r="D49">
         <v>28</v>
@@ -2015,8 +2018,8 @@
       <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="C50">
-        <v>21</v>
+      <c r="C50" t="s">
+        <v>108</v>
       </c>
       <c r="D50">
         <v>1874</v>
@@ -2028,10 +2031,10 @@
         <v>164582</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2041,8 +2044,8 @@
       <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="C51">
-        <v>5</v>
+      <c r="C51" t="s">
+        <v>108</v>
       </c>
       <c r="D51">
         <v>222</v>
@@ -2054,10 +2057,10 @@
         <v>41001</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2067,8 +2070,8 @@
       <c r="B52" t="s">
         <v>58</v>
       </c>
-      <c r="C52">
-        <v>26</v>
+      <c r="C52" t="s">
+        <v>108</v>
       </c>
       <c r="D52">
         <v>1985</v>
@@ -2080,10 +2083,10 @@
         <v>177227</v>
       </c>
       <c r="G52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2093,8 +2096,8 @@
       <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="C53">
-        <v>2</v>
+      <c r="C53" t="s">
+        <v>108</v>
       </c>
       <c r="D53">
         <v>119</v>
@@ -2106,10 +2109,10 @@
         <v>10007</v>
       </c>
       <c r="G53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2119,8 +2122,8 @@
       <c r="B54" t="s">
         <v>60</v>
       </c>
-      <c r="C54">
-        <v>15</v>
+      <c r="C54" t="s">
+        <v>108</v>
       </c>
       <c r="D54">
         <v>702</v>
@@ -2132,10 +2135,10 @@
         <v>59762</v>
       </c>
       <c r="G54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2145,8 +2148,8 @@
       <c r="B55" t="s">
         <v>61</v>
       </c>
-      <c r="C55">
-        <v>8</v>
+      <c r="C55" t="s">
+        <v>108</v>
       </c>
       <c r="D55">
         <v>824</v>
@@ -2158,10 +2161,10 @@
         <v>58732</v>
       </c>
       <c r="G55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2171,8 +2174,8 @@
       <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="C56">
-        <v>11</v>
+      <c r="C56" t="s">
+        <v>108</v>
       </c>
       <c r="D56">
         <v>685</v>
@@ -2184,10 +2187,10 @@
         <v>79111</v>
       </c>
       <c r="G56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2197,8 +2200,8 @@
       <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="C57">
-        <v>5</v>
+      <c r="C57" t="s">
+        <v>108</v>
       </c>
       <c r="D57">
         <v>294</v>
@@ -2217,8 +2220,8 @@
       <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="C58">
-        <v>3</v>
+      <c r="C58" t="s">
+        <v>108</v>
       </c>
       <c r="D58">
         <v>100</v>
@@ -2230,10 +2233,10 @@
         <v>21147</v>
       </c>
       <c r="G58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2243,8 +2246,8 @@
       <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="C59">
-        <v>5</v>
+      <c r="C59" t="s">
+        <v>108</v>
       </c>
       <c r="D59">
         <v>206</v>
@@ -2263,8 +2266,8 @@
       <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="C60">
-        <v>10</v>
+      <c r="C60" t="s">
+        <v>108</v>
       </c>
       <c r="D60">
         <v>398</v>
@@ -2276,10 +2279,10 @@
         <v>45021</v>
       </c>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2289,8 +2292,8 @@
       <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="C61">
-        <v>69</v>
+      <c r="C61" t="s">
+        <v>108</v>
       </c>
       <c r="D61">
         <v>15915</v>
@@ -2302,10 +2305,10 @@
         <v>990677</v>
       </c>
       <c r="G61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2315,8 +2318,8 @@
       <c r="B62" t="s">
         <v>68</v>
       </c>
-      <c r="C62">
-        <v>5</v>
+      <c r="C62" t="s">
+        <v>108</v>
       </c>
       <c r="D62">
         <v>150</v>
@@ -2335,8 +2338,8 @@
       <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="C63">
-        <v>4</v>
+      <c r="C63" t="s">
+        <v>108</v>
       </c>
       <c r="D63">
         <v>216</v>
@@ -2355,8 +2358,8 @@
       <c r="B64" t="s">
         <v>70</v>
       </c>
-      <c r="C64">
-        <v>7</v>
+      <c r="C64" t="s">
+        <v>108</v>
       </c>
       <c r="D64">
         <v>851</v>
@@ -2368,10 +2371,10 @@
         <v>91366</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2381,8 +2384,8 @@
       <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="C65">
-        <v>21</v>
+      <c r="C65" t="s">
+        <v>108</v>
       </c>
       <c r="D65">
         <v>1275</v>
@@ -2394,10 +2397,10 @@
         <v>94421</v>
       </c>
       <c r="G65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2407,8 +2410,8 @@
       <c r="B66" t="s">
         <v>72</v>
       </c>
-      <c r="C66">
-        <v>17</v>
+      <c r="C66" t="s">
+        <v>108</v>
       </c>
       <c r="D66">
         <v>2439</v>
@@ -2420,10 +2423,10 @@
         <v>212921</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2433,8 +2436,8 @@
       <c r="B67" t="s">
         <v>73</v>
       </c>
-      <c r="C67">
-        <v>7</v>
+      <c r="C67" t="s">
+        <v>108</v>
       </c>
       <c r="D67">
         <v>216</v>
@@ -2446,10 +2449,10 @@
         <v>20856</v>
       </c>
       <c r="G67" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2459,8 +2462,8 @@
       <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="C68">
-        <v>24</v>
+      <c r="C68" t="s">
+        <v>108</v>
       </c>
       <c r="D68">
         <v>1765</v>
@@ -2472,10 +2475,10 @@
         <v>192354</v>
       </c>
       <c r="G68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2485,8 +2488,8 @@
       <c r="B69" t="s">
         <v>75</v>
       </c>
-      <c r="C69">
-        <v>13</v>
+      <c r="C69" t="s">
+        <v>108</v>
       </c>
       <c r="D69">
         <v>957</v>
@@ -2498,10 +2501,10 @@
         <v>139397</v>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2511,8 +2514,8 @@
       <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="C70">
-        <v>2</v>
+      <c r="C70" t="s">
+        <v>108</v>
       </c>
       <c r="D70">
         <v>75</v>
@@ -2524,10 +2527,10 @@
         <v>12880</v>
       </c>
       <c r="G70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2537,8 +2540,8 @@
       <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="C71">
-        <v>0</v>
+      <c r="C71" t="s">
+        <v>108</v>
       </c>
       <c r="D71">
         <v>318</v>
@@ -2550,10 +2553,10 @@
         <v>39548</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2563,8 +2566,8 @@
       <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="C72">
-        <v>15</v>
+      <c r="C72" t="s">
+        <v>108</v>
       </c>
       <c r="D72">
         <v>632</v>
@@ -2576,10 +2579,10 @@
         <v>54779</v>
       </c>
       <c r="G72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2589,8 +2592,8 @@
       <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="C73">
-        <v>5</v>
+      <c r="C73" t="s">
+        <v>108</v>
       </c>
       <c r="D73">
         <v>88</v>
@@ -2602,10 +2605,10 @@
         <v>13634</v>
       </c>
       <c r="G73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2615,8 +2618,8 @@
       <c r="B74" t="s">
         <v>80</v>
       </c>
-      <c r="C74">
-        <v>6</v>
+      <c r="C74" t="s">
+        <v>108</v>
       </c>
       <c r="D74">
         <v>316</v>
@@ -2628,10 +2631,10 @@
         <v>39239</v>
       </c>
       <c r="G74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2641,8 +2644,8 @@
       <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="C75">
-        <v>19</v>
+      <c r="C75" t="s">
+        <v>108</v>
       </c>
       <c r="D75">
         <v>2376</v>
@@ -2654,10 +2657,10 @@
         <v>174380</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2667,8 +2670,8 @@
       <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="C76">
-        <v>5</v>
+      <c r="C76" t="s">
+        <v>108</v>
       </c>
       <c r="D76">
         <v>161</v>
@@ -2687,8 +2690,8 @@
       <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="C77">
-        <v>22</v>
+      <c r="C77" t="s">
+        <v>108</v>
       </c>
       <c r="D77">
         <v>1477</v>
@@ -2700,10 +2703,10 @@
         <v>142308</v>
       </c>
       <c r="G77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2713,8 +2716,8 @@
       <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="C78">
-        <v>11</v>
+      <c r="C78" t="s">
+        <v>108</v>
       </c>
       <c r="D78">
         <v>597</v>
@@ -2726,10 +2729,10 @@
         <v>46133</v>
       </c>
       <c r="G78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2739,8 +2742,8 @@
       <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="C79">
-        <v>40</v>
+      <c r="C79" t="s">
+        <v>108</v>
       </c>
       <c r="D79">
         <v>2332</v>
@@ -2752,10 +2755,10 @@
         <v>135136</v>
       </c>
       <c r="G79" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H79" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2765,8 +2768,8 @@
       <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="C80">
-        <v>12</v>
+      <c r="C80" t="s">
+        <v>108</v>
       </c>
       <c r="D80">
         <v>829</v>
@@ -2778,10 +2781,10 @@
         <v>91896</v>
       </c>
       <c r="G80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2791,8 +2794,8 @@
       <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="C81">
-        <v>27</v>
+      <c r="C81" t="s">
+        <v>108</v>
       </c>
       <c r="D81">
         <v>1430</v>
@@ -2804,10 +2807,10 @@
         <v>137690</v>
       </c>
       <c r="G81" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2817,8 +2820,8 @@
       <c r="B82" t="s">
         <v>88</v>
       </c>
-      <c r="C82">
-        <v>12</v>
+      <c r="C82" t="s">
+        <v>108</v>
       </c>
       <c r="D82">
         <v>662</v>
@@ -2830,10 +2833,10 @@
         <v>66847</v>
       </c>
       <c r="G82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2843,8 +2846,8 @@
       <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="C83">
-        <v>14</v>
+      <c r="C83" t="s">
+        <v>108</v>
       </c>
       <c r="D83">
         <v>726</v>
@@ -2863,8 +2866,8 @@
       <c r="B84" t="s">
         <v>90</v>
       </c>
-      <c r="C84">
-        <v>9</v>
+      <c r="C84" t="s">
+        <v>108</v>
       </c>
       <c r="D84">
         <v>493</v>
@@ -2876,10 +2879,10 @@
         <v>35911</v>
       </c>
       <c r="G84" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2889,8 +2892,8 @@
       <c r="B85" t="s">
         <v>91</v>
       </c>
-      <c r="C85">
-        <v>10</v>
+      <c r="C85" t="s">
+        <v>108</v>
       </c>
       <c r="D85">
         <v>549</v>
@@ -2902,10 +2905,10 @@
         <v>60633</v>
       </c>
       <c r="G85" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2915,8 +2918,8 @@
       <c r="B86" t="s">
         <v>92</v>
       </c>
-      <c r="C86">
-        <v>8</v>
+      <c r="C86" t="s">
+        <v>108</v>
       </c>
       <c r="D86">
         <v>405</v>
@@ -2928,10 +2931,10 @@
         <v>46514</v>
       </c>
       <c r="G86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H86" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2941,8 +2944,8 @@
       <c r="B87" t="s">
         <v>93</v>
       </c>
-      <c r="C87">
-        <v>10</v>
+      <c r="C87" t="s">
+        <v>108</v>
       </c>
       <c r="D87">
         <v>703</v>
@@ -2954,10 +2957,10 @@
         <v>72643</v>
       </c>
       <c r="G87" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H87" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2967,8 +2970,8 @@
       <c r="B88" t="s">
         <v>94</v>
       </c>
-      <c r="C88">
-        <v>5</v>
+      <c r="C88" t="s">
+        <v>108</v>
       </c>
       <c r="D88">
         <v>102</v>
@@ -2980,10 +2983,10 @@
         <v>13977</v>
       </c>
       <c r="G88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2993,8 +2996,8 @@
       <c r="B89" t="s">
         <v>95</v>
       </c>
-      <c r="C89">
-        <v>2</v>
+      <c r="C89" t="s">
+        <v>108</v>
       </c>
       <c r="D89">
         <v>239</v>
@@ -3006,10 +3009,10 @@
         <v>32827</v>
       </c>
       <c r="G89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3019,8 +3022,8 @@
       <c r="B90" t="s">
         <v>96</v>
       </c>
-      <c r="C90">
-        <v>0</v>
+      <c r="C90" t="s">
+        <v>108</v>
       </c>
       <c r="D90">
         <v>26</v>
@@ -3039,8 +3042,8 @@
       <c r="B91" t="s">
         <v>97</v>
       </c>
-      <c r="C91">
-        <v>21</v>
+      <c r="C91" t="s">
+        <v>108</v>
       </c>
       <c r="D91">
         <v>1814</v>
@@ -3052,10 +3055,10 @@
         <v>212200</v>
       </c>
       <c r="G91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H91" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3065,8 +3068,8 @@
       <c r="B92" t="s">
         <v>98</v>
       </c>
-      <c r="C92">
-        <v>13</v>
+      <c r="C92" t="s">
+        <v>108</v>
       </c>
       <c r="D92">
         <v>619</v>
@@ -3078,10 +3081,10 @@
         <v>44491</v>
       </c>
       <c r="G92" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H92" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3091,8 +3094,8 @@
       <c r="B93" t="s">
         <v>99</v>
       </c>
-      <c r="C93">
-        <v>72</v>
+      <c r="C93" t="s">
+        <v>108</v>
       </c>
       <c r="D93">
         <v>10220</v>
@@ -3104,10 +3107,10 @@
         <v>974198</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H93" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3117,8 +3120,8 @@
       <c r="B94" t="s">
         <v>100</v>
       </c>
-      <c r="C94">
-        <v>0</v>
+      <c r="C94" t="s">
+        <v>108</v>
       </c>
       <c r="D94">
         <v>146</v>
@@ -3137,8 +3140,8 @@
       <c r="B95" t="s">
         <v>101</v>
       </c>
-      <c r="C95">
-        <v>0</v>
+      <c r="C95" t="s">
+        <v>108</v>
       </c>
       <c r="D95">
         <v>95</v>
@@ -3157,8 +3160,8 @@
       <c r="B96" t="s">
         <v>102</v>
       </c>
-      <c r="C96">
-        <v>4</v>
+      <c r="C96" t="s">
+        <v>108</v>
       </c>
       <c r="D96">
         <v>432</v>
@@ -3170,10 +3173,10 @@
         <v>52295</v>
       </c>
       <c r="G96" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3183,8 +3186,8 @@
       <c r="B97" t="s">
         <v>103</v>
       </c>
-      <c r="C97">
-        <v>25</v>
+      <c r="C97" t="s">
+        <v>108</v>
       </c>
       <c r="D97">
         <v>1507</v>
@@ -3196,10 +3199,10 @@
         <v>124587</v>
       </c>
       <c r="G97" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H97" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3209,8 +3212,8 @@
       <c r="B98" t="s">
         <v>104</v>
       </c>
-      <c r="C98">
-        <v>9</v>
+      <c r="C98" t="s">
+        <v>108</v>
       </c>
       <c r="D98">
         <v>704</v>
@@ -3222,10 +3225,10 @@
         <v>68609</v>
       </c>
       <c r="G98" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H98" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3235,8 +3238,8 @@
       <c r="B99" t="s">
         <v>105</v>
       </c>
-      <c r="C99">
-        <v>12</v>
+      <c r="C99" t="s">
+        <v>108</v>
       </c>
       <c r="D99">
         <v>946</v>
@@ -3248,10 +3251,10 @@
         <v>81189</v>
       </c>
       <c r="G99" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3261,8 +3264,8 @@
       <c r="B100" t="s">
         <v>106</v>
       </c>
-      <c r="C100">
-        <v>5</v>
+      <c r="C100" t="s">
+        <v>108</v>
       </c>
       <c r="D100">
         <v>278</v>
@@ -3274,10 +3277,10 @@
         <v>38063</v>
       </c>
       <c r="G100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H100" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3287,8 +3290,8 @@
       <c r="B101" t="s">
         <v>107</v>
       </c>
-      <c r="C101">
-        <v>3</v>
+      <c r="C101" t="s">
+        <v>108</v>
       </c>
       <c r="D101">
         <v>100</v>

--- a/data/cleaned_data/2013_NC.xlsx
+++ b/data/cleaned_data/2013_NC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="149">
   <si>
     <t>Year</t>
   </si>
@@ -338,9 +338,6 @@
   </si>
   <si>
     <t>YANCEY</t>
-  </si>
-  <si>
-    <t>23</t>
   </si>
   <si>
     <t>Burlington, NC</t>
@@ -860,8 +857,8 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>108</v>
+      <c r="C2">
+        <v>23</v>
       </c>
       <c r="D2">
         <v>1754</v>
@@ -873,10 +870,10 @@
         <v>154162</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -886,8 +883,8 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>108</v>
+      <c r="C3">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>212</v>
@@ -899,10 +896,10 @@
         <v>37012</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -912,8 +909,8 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>108</v>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4">
         <v>98</v>
@@ -932,8 +929,8 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>108</v>
+      <c r="C5">
+        <v>7</v>
       </c>
       <c r="D5">
         <v>370</v>
@@ -945,10 +942,10 @@
         <v>25957</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -958,8 +955,8 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>108</v>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="D6">
         <v>206</v>
@@ -978,8 +975,8 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>108</v>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7">
         <v>151</v>
@@ -998,8 +995,8 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>108</v>
+      <c r="C8">
+        <v>13</v>
       </c>
       <c r="D8">
         <v>435</v>
@@ -1011,10 +1008,10 @@
         <v>47382</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1024,8 +1021,8 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
-        <v>108</v>
+      <c r="C9">
+        <v>5</v>
       </c>
       <c r="D9">
         <v>251</v>
@@ -1044,8 +1041,8 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>108</v>
+      <c r="C10">
+        <v>16</v>
       </c>
       <c r="D10">
         <v>499</v>
@@ -1064,8 +1061,8 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
-        <v>108</v>
+      <c r="C11">
+        <v>13</v>
       </c>
       <c r="D11">
         <v>904</v>
@@ -1077,10 +1074,10 @@
         <v>114922</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1090,8 +1087,8 @@
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
-        <v>108</v>
+      <c r="C12">
+        <v>33</v>
       </c>
       <c r="D12">
         <v>2673</v>
@@ -1103,10 +1100,10 @@
         <v>246807</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1116,8 +1113,8 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
-        <v>108</v>
+      <c r="C13">
+        <v>8</v>
       </c>
       <c r="D13">
         <v>952</v>
@@ -1129,10 +1126,10 @@
         <v>89354</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1142,8 +1139,8 @@
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>108</v>
+      <c r="C14">
+        <v>19</v>
       </c>
       <c r="D14">
         <v>2259</v>
@@ -1155,10 +1152,10 @@
         <v>187240</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1168,8 +1165,8 @@
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
-        <v>108</v>
+      <c r="C15">
+        <v>8</v>
       </c>
       <c r="D15">
         <v>843</v>
@@ -1181,10 +1178,10 @@
         <v>82048</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1194,8 +1191,8 @@
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
-        <v>108</v>
+      <c r="C16">
+        <v>1</v>
       </c>
       <c r="D16">
         <v>48</v>
@@ -1207,10 +1204,10 @@
         <v>10116</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1220,8 +1217,8 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>108</v>
+      <c r="C17">
+        <v>7</v>
       </c>
       <c r="D17">
         <v>530</v>
@@ -1233,10 +1230,10 @@
         <v>68388</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1246,8 +1243,8 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>108</v>
+      <c r="C18">
+        <v>2</v>
       </c>
       <c r="D18">
         <v>157</v>
@@ -1266,8 +1263,8 @@
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>108</v>
+      <c r="C19">
+        <v>19</v>
       </c>
       <c r="D19">
         <v>1869</v>
@@ -1279,10 +1276,10 @@
         <v>154965</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1292,8 +1289,8 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
-        <v>108</v>
+      <c r="C20">
+        <v>13</v>
       </c>
       <c r="D20">
         <v>390</v>
@@ -1305,10 +1302,10 @@
         <v>65243</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1318,8 +1315,8 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
-        <v>108</v>
+      <c r="C21">
+        <v>6</v>
       </c>
       <c r="D21">
         <v>222</v>
@@ -1338,8 +1335,8 @@
       <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
-        <v>108</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
         <v>69</v>
@@ -1358,8 +1355,8 @@
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" t="s">
-        <v>108</v>
+      <c r="C23">
+        <v>2</v>
       </c>
       <c r="D23">
         <v>60</v>
@@ -1378,8 +1375,8 @@
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
-        <v>108</v>
+      <c r="C24">
+        <v>10</v>
       </c>
       <c r="D24">
         <v>1135</v>
@@ -1391,10 +1388,10 @@
         <v>96873</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1404,8 +1401,8 @@
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
-        <v>108</v>
+      <c r="C25">
+        <v>22</v>
       </c>
       <c r="D25">
         <v>920</v>
@@ -1424,8 +1421,8 @@
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="s">
-        <v>108</v>
+      <c r="C26">
+        <v>17</v>
       </c>
       <c r="D26">
         <v>899</v>
@@ -1437,10 +1434,10 @@
         <v>104285</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1450,8 +1447,8 @@
       <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>108</v>
+      <c r="C27">
+        <v>50</v>
       </c>
       <c r="D27">
         <v>3466</v>
@@ -1463,10 +1460,10 @@
         <v>332997</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1476,8 +1473,8 @@
       <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
-        <v>108</v>
+      <c r="C28">
+        <v>4</v>
       </c>
       <c r="D28">
         <v>131</v>
@@ -1489,10 +1486,10 @@
         <v>24253</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1502,8 +1499,8 @@
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
-        <v>108</v>
+      <c r="C29">
+        <v>7</v>
       </c>
       <c r="D29">
         <v>351</v>
@@ -1515,10 +1512,10 @@
         <v>34810</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1528,8 +1525,8 @@
       <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s">
-        <v>108</v>
+      <c r="C30">
+        <v>28</v>
       </c>
       <c r="D30">
         <v>1672</v>
@@ -1541,10 +1538,10 @@
         <v>163295</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1554,8 +1551,8 @@
       <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C31" t="s">
-        <v>108</v>
+      <c r="C31">
+        <v>3</v>
       </c>
       <c r="D31">
         <v>270</v>
@@ -1567,10 +1564,10 @@
         <v>41435</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1580,8 +1577,8 @@
       <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s">
-        <v>108</v>
+      <c r="C32">
+        <v>8</v>
       </c>
       <c r="D32">
         <v>557</v>
@@ -1600,8 +1597,8 @@
       <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s">
-        <v>108</v>
+      <c r="C33">
+        <v>25</v>
       </c>
       <c r="D33">
         <v>3408</v>
@@ -1613,10 +1610,10 @@
         <v>288723</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1626,8 +1623,8 @@
       <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="C34" t="s">
-        <v>108</v>
+      <c r="C34">
+        <v>8</v>
       </c>
       <c r="D34">
         <v>642</v>
@@ -1639,10 +1636,10 @@
         <v>55422</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1652,8 +1649,8 @@
       <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
-        <v>108</v>
+      <c r="C35">
+        <v>25</v>
       </c>
       <c r="D35">
         <v>3341</v>
@@ -1665,10 +1662,10 @@
         <v>360594</v>
       </c>
       <c r="G35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1678,8 +1675,8 @@
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36" t="s">
-        <v>108</v>
+      <c r="C36">
+        <v>11</v>
       </c>
       <c r="D36">
         <v>523</v>
@@ -1691,10 +1688,10 @@
         <v>62074</v>
       </c>
       <c r="G36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1704,8 +1701,8 @@
       <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="C37" t="s">
-        <v>108</v>
+      <c r="C37">
+        <v>23</v>
       </c>
       <c r="D37">
         <v>2732</v>
@@ -1717,10 +1714,10 @@
         <v>209212</v>
       </c>
       <c r="G37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1730,8 +1727,8 @@
       <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="C38" t="s">
-        <v>108</v>
+      <c r="C38">
+        <v>3</v>
       </c>
       <c r="D38">
         <v>115</v>
@@ -1743,10 +1740,10 @@
         <v>11703</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1756,8 +1753,8 @@
       <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C39" t="s">
-        <v>108</v>
+      <c r="C39">
+        <v>5</v>
       </c>
       <c r="D39">
         <v>131</v>
@@ -1776,8 +1773,8 @@
       <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="C40" t="s">
-        <v>108</v>
+      <c r="C40">
+        <v>7</v>
       </c>
       <c r="D40">
         <v>520</v>
@@ -1789,10 +1786,10 @@
         <v>57762</v>
       </c>
       <c r="G40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1802,8 +1799,8 @@
       <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="C41" t="s">
-        <v>108</v>
+      <c r="C41">
+        <v>3</v>
       </c>
       <c r="D41">
         <v>167</v>
@@ -1822,8 +1819,8 @@
       <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C42" t="s">
-        <v>108</v>
+      <c r="C42">
+        <v>48</v>
       </c>
       <c r="D42">
         <v>7078</v>
@@ -1835,10 +1832,10 @@
         <v>506400</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1848,8 +1845,8 @@
       <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="C43" t="s">
-        <v>108</v>
+      <c r="C43">
+        <v>13</v>
       </c>
       <c r="D43">
         <v>741</v>
@@ -1861,10 +1858,10 @@
         <v>53187</v>
       </c>
       <c r="G43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1874,8 +1871,8 @@
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
-        <v>108</v>
+      <c r="C44">
+        <v>28</v>
       </c>
       <c r="D44">
         <v>1054</v>
@@ -1887,10 +1884,10 @@
         <v>125028</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1900,8 +1897,8 @@
       <c r="B45" t="s">
         <v>51</v>
       </c>
-      <c r="C45" t="s">
-        <v>108</v>
+      <c r="C45">
+        <v>7</v>
       </c>
       <c r="D45">
         <v>542</v>
@@ -1913,10 +1910,10 @@
         <v>58962</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1926,8 +1923,8 @@
       <c r="B46" t="s">
         <v>52</v>
       </c>
-      <c r="C46" t="s">
-        <v>108</v>
+      <c r="C46">
+        <v>8</v>
       </c>
       <c r="D46">
         <v>990</v>
@@ -1939,10 +1936,10 @@
         <v>108879</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1952,8 +1949,8 @@
       <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C47" t="s">
-        <v>108</v>
+      <c r="C47">
+        <v>3</v>
       </c>
       <c r="D47">
         <v>280</v>
@@ -1972,8 +1969,8 @@
       <c r="B48" t="s">
         <v>54</v>
       </c>
-      <c r="C48" t="s">
-        <v>108</v>
+      <c r="C48">
+        <v>6</v>
       </c>
       <c r="D48">
         <v>461</v>
@@ -1985,10 +1982,10 @@
         <v>51155</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1998,8 +1995,8 @@
       <c r="B49" t="s">
         <v>55</v>
       </c>
-      <c r="C49" t="s">
-        <v>108</v>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="D49">
         <v>28</v>
@@ -2018,8 +2015,8 @@
       <c r="B50" t="s">
         <v>56</v>
       </c>
-      <c r="C50" t="s">
-        <v>108</v>
+      <c r="C50">
+        <v>21</v>
       </c>
       <c r="D50">
         <v>1874</v>
@@ -2031,10 +2028,10 @@
         <v>164582</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2044,8 +2041,8 @@
       <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="C51" t="s">
-        <v>108</v>
+      <c r="C51">
+        <v>5</v>
       </c>
       <c r="D51">
         <v>222</v>
@@ -2057,10 +2054,10 @@
         <v>41001</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2070,8 +2067,8 @@
       <c r="B52" t="s">
         <v>58</v>
       </c>
-      <c r="C52" t="s">
-        <v>108</v>
+      <c r="C52">
+        <v>26</v>
       </c>
       <c r="D52">
         <v>1985</v>
@@ -2083,10 +2080,10 @@
         <v>177227</v>
       </c>
       <c r="G52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2096,8 +2093,8 @@
       <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="C53" t="s">
-        <v>108</v>
+      <c r="C53">
+        <v>2</v>
       </c>
       <c r="D53">
         <v>119</v>
@@ -2109,10 +2106,10 @@
         <v>10007</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2122,8 +2119,8 @@
       <c r="B54" t="s">
         <v>60</v>
       </c>
-      <c r="C54" t="s">
-        <v>108</v>
+      <c r="C54">
+        <v>15</v>
       </c>
       <c r="D54">
         <v>702</v>
@@ -2135,10 +2132,10 @@
         <v>59762</v>
       </c>
       <c r="G54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2148,8 +2145,8 @@
       <c r="B55" t="s">
         <v>61</v>
       </c>
-      <c r="C55" t="s">
-        <v>108</v>
+      <c r="C55">
+        <v>8</v>
       </c>
       <c r="D55">
         <v>824</v>
@@ -2161,10 +2158,10 @@
         <v>58732</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2174,8 +2171,8 @@
       <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="C56" t="s">
-        <v>108</v>
+      <c r="C56">
+        <v>11</v>
       </c>
       <c r="D56">
         <v>685</v>
@@ -2187,10 +2184,10 @@
         <v>79111</v>
       </c>
       <c r="G56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2200,8 +2197,8 @@
       <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="C57" t="s">
-        <v>108</v>
+      <c r="C57">
+        <v>5</v>
       </c>
       <c r="D57">
         <v>294</v>
@@ -2220,8 +2217,8 @@
       <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="C58" t="s">
-        <v>108</v>
+      <c r="C58">
+        <v>3</v>
       </c>
       <c r="D58">
         <v>100</v>
@@ -2233,10 +2230,10 @@
         <v>21147</v>
       </c>
       <c r="G58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2246,8 +2243,8 @@
       <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="C59" t="s">
-        <v>108</v>
+      <c r="C59">
+        <v>5</v>
       </c>
       <c r="D59">
         <v>206</v>
@@ -2266,8 +2263,8 @@
       <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="C60" t="s">
-        <v>108</v>
+      <c r="C60">
+        <v>10</v>
       </c>
       <c r="D60">
         <v>398</v>
@@ -2279,10 +2276,10 @@
         <v>45021</v>
       </c>
       <c r="G60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2292,8 +2289,8 @@
       <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="C61" t="s">
-        <v>108</v>
+      <c r="C61">
+        <v>69</v>
       </c>
       <c r="D61">
         <v>15915</v>
@@ -2305,10 +2302,10 @@
         <v>990677</v>
       </c>
       <c r="G61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2318,8 +2315,8 @@
       <c r="B62" t="s">
         <v>68</v>
       </c>
-      <c r="C62" t="s">
-        <v>108</v>
+      <c r="C62">
+        <v>5</v>
       </c>
       <c r="D62">
         <v>150</v>
@@ -2338,8 +2335,8 @@
       <c r="B63" t="s">
         <v>69</v>
       </c>
-      <c r="C63" t="s">
-        <v>108</v>
+      <c r="C63">
+        <v>4</v>
       </c>
       <c r="D63">
         <v>216</v>
@@ -2358,8 +2355,8 @@
       <c r="B64" t="s">
         <v>70</v>
       </c>
-      <c r="C64" t="s">
-        <v>108</v>
+      <c r="C64">
+        <v>7</v>
       </c>
       <c r="D64">
         <v>851</v>
@@ -2371,10 +2368,10 @@
         <v>91366</v>
       </c>
       <c r="G64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2384,8 +2381,8 @@
       <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="C65" t="s">
-        <v>108</v>
+      <c r="C65">
+        <v>21</v>
       </c>
       <c r="D65">
         <v>1275</v>
@@ -2397,10 +2394,10 @@
         <v>94421</v>
       </c>
       <c r="G65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2410,8 +2407,8 @@
       <c r="B66" t="s">
         <v>72</v>
       </c>
-      <c r="C66" t="s">
-        <v>108</v>
+      <c r="C66">
+        <v>17</v>
       </c>
       <c r="D66">
         <v>2439</v>
@@ -2423,10 +2420,10 @@
         <v>212921</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2436,8 +2433,8 @@
       <c r="B67" t="s">
         <v>73</v>
       </c>
-      <c r="C67" t="s">
-        <v>108</v>
+      <c r="C67">
+        <v>7</v>
       </c>
       <c r="D67">
         <v>216</v>
@@ -2449,10 +2446,10 @@
         <v>20856</v>
       </c>
       <c r="G67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2462,8 +2459,8 @@
       <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="C68" t="s">
-        <v>108</v>
+      <c r="C68">
+        <v>24</v>
       </c>
       <c r="D68">
         <v>1765</v>
@@ -2475,10 +2472,10 @@
         <v>192354</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2488,8 +2485,8 @@
       <c r="B69" t="s">
         <v>75</v>
       </c>
-      <c r="C69" t="s">
-        <v>108</v>
+      <c r="C69">
+        <v>13</v>
       </c>
       <c r="D69">
         <v>957</v>
@@ -2501,10 +2498,10 @@
         <v>139397</v>
       </c>
       <c r="G69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2514,8 +2511,8 @@
       <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="C70" t="s">
-        <v>108</v>
+      <c r="C70">
+        <v>2</v>
       </c>
       <c r="D70">
         <v>75</v>
@@ -2527,10 +2524,10 @@
         <v>12880</v>
       </c>
       <c r="G70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2540,8 +2537,8 @@
       <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="C71" t="s">
-        <v>108</v>
+      <c r="C71">
+        <v>0</v>
       </c>
       <c r="D71">
         <v>318</v>
@@ -2553,10 +2550,10 @@
         <v>39548</v>
       </c>
       <c r="G71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2566,8 +2563,8 @@
       <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="C72" t="s">
-        <v>108</v>
+      <c r="C72">
+        <v>15</v>
       </c>
       <c r="D72">
         <v>632</v>
@@ -2579,10 +2576,10 @@
         <v>54779</v>
       </c>
       <c r="G72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2592,8 +2589,8 @@
       <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="C73" t="s">
-        <v>108</v>
+      <c r="C73">
+        <v>5</v>
       </c>
       <c r="D73">
         <v>88</v>
@@ -2605,10 +2602,10 @@
         <v>13634</v>
       </c>
       <c r="G73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2618,8 +2615,8 @@
       <c r="B74" t="s">
         <v>80</v>
       </c>
-      <c r="C74" t="s">
-        <v>108</v>
+      <c r="C74">
+        <v>6</v>
       </c>
       <c r="D74">
         <v>316</v>
@@ -2631,10 +2628,10 @@
         <v>39239</v>
       </c>
       <c r="G74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2644,8 +2641,8 @@
       <c r="B75" t="s">
         <v>81</v>
       </c>
-      <c r="C75" t="s">
-        <v>108</v>
+      <c r="C75">
+        <v>19</v>
       </c>
       <c r="D75">
         <v>2376</v>
@@ -2657,10 +2654,10 @@
         <v>174380</v>
       </c>
       <c r="G75" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2670,8 +2667,8 @@
       <c r="B76" t="s">
         <v>82</v>
       </c>
-      <c r="C76" t="s">
-        <v>108</v>
+      <c r="C76">
+        <v>5</v>
       </c>
       <c r="D76">
         <v>161</v>
@@ -2690,8 +2687,8 @@
       <c r="B77" t="s">
         <v>83</v>
       </c>
-      <c r="C77" t="s">
-        <v>108</v>
+      <c r="C77">
+        <v>22</v>
       </c>
       <c r="D77">
         <v>1477</v>
@@ -2703,10 +2700,10 @@
         <v>142308</v>
       </c>
       <c r="G77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2716,8 +2713,8 @@
       <c r="B78" t="s">
         <v>84</v>
       </c>
-      <c r="C78" t="s">
-        <v>108</v>
+      <c r="C78">
+        <v>11</v>
       </c>
       <c r="D78">
         <v>597</v>
@@ -2729,10 +2726,10 @@
         <v>46133</v>
       </c>
       <c r="G78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2742,8 +2739,8 @@
       <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="C79" t="s">
-        <v>108</v>
+      <c r="C79">
+        <v>40</v>
       </c>
       <c r="D79">
         <v>2332</v>
@@ -2755,10 +2752,10 @@
         <v>135136</v>
       </c>
       <c r="G79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2768,8 +2765,8 @@
       <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="C80" t="s">
-        <v>108</v>
+      <c r="C80">
+        <v>12</v>
       </c>
       <c r="D80">
         <v>829</v>
@@ -2781,10 +2778,10 @@
         <v>91896</v>
       </c>
       <c r="G80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2794,8 +2791,8 @@
       <c r="B81" t="s">
         <v>87</v>
       </c>
-      <c r="C81" t="s">
-        <v>108</v>
+      <c r="C81">
+        <v>27</v>
       </c>
       <c r="D81">
         <v>1430</v>
@@ -2807,10 +2804,10 @@
         <v>137690</v>
       </c>
       <c r="G81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2820,8 +2817,8 @@
       <c r="B82" t="s">
         <v>88</v>
       </c>
-      <c r="C82" t="s">
-        <v>108</v>
+      <c r="C82">
+        <v>12</v>
       </c>
       <c r="D82">
         <v>662</v>
@@ -2833,10 +2830,10 @@
         <v>66847</v>
       </c>
       <c r="G82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2846,8 +2843,8 @@
       <c r="B83" t="s">
         <v>89</v>
       </c>
-      <c r="C83" t="s">
-        <v>108</v>
+      <c r="C83">
+        <v>14</v>
       </c>
       <c r="D83">
         <v>726</v>
@@ -2866,8 +2863,8 @@
       <c r="B84" t="s">
         <v>90</v>
       </c>
-      <c r="C84" t="s">
-        <v>108</v>
+      <c r="C84">
+        <v>9</v>
       </c>
       <c r="D84">
         <v>493</v>
@@ -2879,10 +2876,10 @@
         <v>35911</v>
       </c>
       <c r="G84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2892,8 +2889,8 @@
       <c r="B85" t="s">
         <v>91</v>
       </c>
-      <c r="C85" t="s">
-        <v>108</v>
+      <c r="C85">
+        <v>10</v>
       </c>
       <c r="D85">
         <v>549</v>
@@ -2905,10 +2902,10 @@
         <v>60633</v>
       </c>
       <c r="G85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2918,8 +2915,8 @@
       <c r="B86" t="s">
         <v>92</v>
       </c>
-      <c r="C86" t="s">
-        <v>108</v>
+      <c r="C86">
+        <v>8</v>
       </c>
       <c r="D86">
         <v>405</v>
@@ -2931,10 +2928,10 @@
         <v>46514</v>
       </c>
       <c r="G86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2944,8 +2941,8 @@
       <c r="B87" t="s">
         <v>93</v>
       </c>
-      <c r="C87" t="s">
-        <v>108</v>
+      <c r="C87">
+        <v>10</v>
       </c>
       <c r="D87">
         <v>703</v>
@@ -2957,10 +2954,10 @@
         <v>72643</v>
       </c>
       <c r="G87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2970,8 +2967,8 @@
       <c r="B88" t="s">
         <v>94</v>
       </c>
-      <c r="C88" t="s">
-        <v>108</v>
+      <c r="C88">
+        <v>5</v>
       </c>
       <c r="D88">
         <v>102</v>
@@ -2983,10 +2980,10 @@
         <v>13977</v>
       </c>
       <c r="G88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2996,8 +2993,8 @@
       <c r="B89" t="s">
         <v>95</v>
       </c>
-      <c r="C89" t="s">
-        <v>108</v>
+      <c r="C89">
+        <v>2</v>
       </c>
       <c r="D89">
         <v>239</v>
@@ -3009,10 +3006,10 @@
         <v>32827</v>
       </c>
       <c r="G89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3022,8 +3019,8 @@
       <c r="B90" t="s">
         <v>96</v>
       </c>
-      <c r="C90" t="s">
-        <v>108</v>
+      <c r="C90">
+        <v>0</v>
       </c>
       <c r="D90">
         <v>26</v>
@@ -3042,8 +3039,8 @@
       <c r="B91" t="s">
         <v>97</v>
       </c>
-      <c r="C91" t="s">
-        <v>108</v>
+      <c r="C91">
+        <v>21</v>
       </c>
       <c r="D91">
         <v>1814</v>
@@ -3055,10 +3052,10 @@
         <v>212200</v>
       </c>
       <c r="G91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3068,8 +3065,8 @@
       <c r="B92" t="s">
         <v>98</v>
       </c>
-      <c r="C92" t="s">
-        <v>108</v>
+      <c r="C92">
+        <v>13</v>
       </c>
       <c r="D92">
         <v>619</v>
@@ -3081,10 +3078,10 @@
         <v>44491</v>
       </c>
       <c r="G92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3094,8 +3091,8 @@
       <c r="B93" t="s">
         <v>99</v>
       </c>
-      <c r="C93" t="s">
-        <v>108</v>
+      <c r="C93">
+        <v>72</v>
       </c>
       <c r="D93">
         <v>10220</v>
@@ -3107,10 +3104,10 @@
         <v>974198</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3120,8 +3117,8 @@
       <c r="B94" t="s">
         <v>100</v>
       </c>
-      <c r="C94" t="s">
-        <v>108</v>
+      <c r="C94">
+        <v>0</v>
       </c>
       <c r="D94">
         <v>146</v>
@@ -3140,8 +3137,8 @@
       <c r="B95" t="s">
         <v>101</v>
       </c>
-      <c r="C95" t="s">
-        <v>108</v>
+      <c r="C95">
+        <v>0</v>
       </c>
       <c r="D95">
         <v>95</v>
@@ -3160,8 +3157,8 @@
       <c r="B96" t="s">
         <v>102</v>
       </c>
-      <c r="C96" t="s">
-        <v>108</v>
+      <c r="C96">
+        <v>4</v>
       </c>
       <c r="D96">
         <v>432</v>
@@ -3173,10 +3170,10 @@
         <v>52295</v>
       </c>
       <c r="G96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3186,8 +3183,8 @@
       <c r="B97" t="s">
         <v>103</v>
       </c>
-      <c r="C97" t="s">
-        <v>108</v>
+      <c r="C97">
+        <v>25</v>
       </c>
       <c r="D97">
         <v>1507</v>
@@ -3199,10 +3196,10 @@
         <v>124587</v>
       </c>
       <c r="G97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3212,8 +3209,8 @@
       <c r="B98" t="s">
         <v>104</v>
       </c>
-      <c r="C98" t="s">
-        <v>108</v>
+      <c r="C98">
+        <v>9</v>
       </c>
       <c r="D98">
         <v>704</v>
@@ -3225,10 +3222,10 @@
         <v>68609</v>
       </c>
       <c r="G98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3238,8 +3235,8 @@
       <c r="B99" t="s">
         <v>105</v>
       </c>
-      <c r="C99" t="s">
-        <v>108</v>
+      <c r="C99">
+        <v>12</v>
       </c>
       <c r="D99">
         <v>946</v>
@@ -3251,10 +3248,10 @@
         <v>81189</v>
       </c>
       <c r="G99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3264,8 +3261,8 @@
       <c r="B100" t="s">
         <v>106</v>
       </c>
-      <c r="C100" t="s">
-        <v>108</v>
+      <c r="C100">
+        <v>5</v>
       </c>
       <c r="D100">
         <v>278</v>
@@ -3277,10 +3274,10 @@
         <v>38063</v>
       </c>
       <c r="G100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3290,8 +3287,8 @@
       <c r="B101" t="s">
         <v>107</v>
       </c>
-      <c r="C101" t="s">
-        <v>108</v>
+      <c r="C101">
+        <v>3</v>
       </c>
       <c r="D101">
         <v>100</v>
